--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -30,63 +30,12 @@
     <t>Pozn.</t>
   </si>
   <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>19.2.</t>
-  </si>
-  <si>
-    <t>21.2.</t>
-  </si>
-  <si>
-    <t>22.2.</t>
-  </si>
-  <si>
-    <t>23.2.</t>
-  </si>
-  <si>
-    <t>24.2.</t>
-  </si>
-  <si>
-    <t>26.2.</t>
-  </si>
-  <si>
-    <t>28.2.</t>
-  </si>
-  <si>
     <t>3.3.</t>
   </si>
   <si>
-    <t>27.2.</t>
-  </si>
-  <si>
-    <t>nové úpravy</t>
-  </si>
-  <si>
-    <t>posláno</t>
-  </si>
-  <si>
-    <t>nová verze</t>
-  </si>
-  <si>
     <t>4.3.</t>
   </si>
   <si>
-    <t>1.2.</t>
-  </si>
-  <si>
-    <t>2.2.</t>
-  </si>
-  <si>
-    <t>verze 1</t>
-  </si>
-  <si>
-    <t>verze 2</t>
-  </si>
-  <si>
-    <t>verze 3</t>
-  </si>
-  <si>
     <t>TeX - Danube 01/2014</t>
   </si>
   <si>
@@ -94,13 +43,58 @@
   </si>
   <si>
     <t>omercevic</t>
+  </si>
+  <si>
+    <t>havlik - first vertical tab</t>
+  </si>
+  <si>
+    <t>omercevic - done</t>
+  </si>
+  <si>
+    <t>bartha</t>
+  </si>
+  <si>
+    <t>hruskovic - done</t>
+  </si>
+  <si>
+    <t>havlik - base text</t>
+  </si>
+  <si>
+    <t>havlik - tables</t>
+  </si>
+  <si>
+    <t>havlik - second vertical tab</t>
+  </si>
+  <si>
+    <t>havlik - added longtable headings</t>
+  </si>
+  <si>
+    <t>havlik - third vertical tab</t>
+  </si>
+  <si>
+    <t>havlik - azbuka</t>
+  </si>
+  <si>
+    <t>havlik - text</t>
+  </si>
+  <si>
+    <t>submission, indent</t>
+  </si>
+  <si>
+    <t>omercevic - lit</t>
+  </si>
+  <si>
+    <t>hruskovic, bartha, havlik</t>
+  </si>
+  <si>
+    <t>literature, paging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,28 +111,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,22 +144,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:P42"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,21 +472,52 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15">
+    <row r="1" spans="2:17">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,21 +530,18 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="2">
         <v>41713</v>
       </c>
@@ -540,26 +552,24 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F23" si="0">D5-C5</f>
+        <f t="shared" ref="F5:F25" si="0">D5-C5</f>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.78125</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="L5" s="4">
-        <v>5.9027777777777783E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="2"/>
       <c r="C6" s="3">
         <v>0.88888888888888884</v>
@@ -568,484 +578,767 @@
         <v>0.9375</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.94097222222222221</v>
-      </c>
-      <c r="L6" s="4">
-        <v>8.6805555555555566E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="L7" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="L9" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="2">
+        <v>41715</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444531E-2</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="2">
+        <v>41716</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5.9027777777777783E-2</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="2"/>
+      <c r="C13" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="2">
+        <v>41720</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="1" t="s">
+      <c r="C15" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="2">
+        <v>41721</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6">
-        <v>41333</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="I20" s="9">
-        <v>41336</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="10">
-        <f>K20-J20</f>
-        <v>8.3333333333333315E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="I21" s="9">
-        <v>41336</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.53125</v>
-      </c>
-      <c r="L21" s="10">
-        <f>K21-J21</f>
-        <v>1.3888888888888951E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="I22" s="9">
-        <v>41336</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.59375</v>
-      </c>
-      <c r="L22" s="10">
-        <f>K22-J22</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="H27" s="7"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="H28" s="7"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="H29" s="7"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="2:17">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="2:17">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="2:17">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="H32" s="7"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="2:17">
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="H33" s="7"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="2:17">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:17">
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:17">
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:17">
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L37" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
+    </row>
+    <row r="38" spans="2:17">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="L38" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
+    </row>
+    <row r="39" spans="2:17">
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
+    </row>
+    <row r="40" spans="2:17">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:17">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:17">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="I44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L44" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="I45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="I46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
